--- a/laravel/public/attachments/14_NorthCarolina_VendorPortal_eVP.xlsx
+++ b/laravel/public/attachments/14_NorthCarolina_VendorPortal_eVP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bidsportal_new\laravel\public\attachments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0692BDF-1649-42B5-907E-31BBD3EB0606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F677E844-7F61-4A3A-B943-C46745C8E798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,10 +150,10 @@
     <t>Arizona</t>
   </si>
   <si>
-    <t>274-2025-RCPAC-111</t>
-  </si>
-  <si>
-    <t>298-Northfork-Cameras-FY112</t>
+    <t>274-2025-RCPAC-112</t>
+  </si>
+  <si>
+    <t>298-Northfork-Cameras-FY113</t>
   </si>
 </sst>
 </file>
@@ -538,12 +538,13 @@
   <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
@@ -614,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>45711</v>
+        <v>45715</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
@@ -664,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>45711</v>
+        <v>45715</v>
       </c>
       <c r="C3" t="s">
         <v>20</v>
